--- a/back-end/Sound/products.xlsx
+++ b/back-end/Sound/products.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -34,140 +34,230 @@
     <t>description</t>
   </si>
   <si>
-    <t>Wide Angle Pictures</t>
-  </si>
-  <si>
-    <t>Sindhi Colony, Indore</t>
-  </si>
-  <si>
-    <t>https://image.wedmegood.com/resized/450X/uploads/member/581817/1686911203__VWT7088.JPG?crop=80,268,1950,1097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome to Wide Angle Pictures, where we specialize in capturing life's most precious moments from a unique perspective. Our team of skilled photographers is dedicated to providing you with stunning </t>
-  </si>
-  <si>
-    <t>TAJ WEDDING FILMS</t>
-  </si>
-  <si>
-    <t>Whitefield, Bangalore</t>
-  </si>
-  <si>
-    <t>https://image.wedmegood.com/resized/450X/uploads/member/403018/1684240295_PNP_6198.jpg?crop=8,300,2031,1142</t>
-  </si>
-  <si>
-    <t>Welcome to Multi Production House, your one-stop destination for all your photography and videography needs. With a diverse team of creative professionals, we offer a wide range of services to cater to your unique requirements.</t>
-  </si>
-  <si>
-    <t>Multi Production House</t>
-  </si>
-  <si>
-    <t>Jaipur , Jaipur</t>
-  </si>
-  <si>
-    <t>https://image.wedmegood.com/resized/450X/uploads/project/261469/1693485434_00_24.JPG?crop=5,879,2037,1146</t>
-  </si>
-  <si>
-    <t>The Wedding Clickers</t>
-  </si>
-  <si>
-    <t>Rohini, Delhi NCR</t>
-  </si>
-  <si>
-    <t>https://image.wedmegood.com/resized/450X/uploads/project/259999/1692532841_FSL00323.jpg?crop=12,112,2024,1139</t>
-  </si>
-  <si>
-    <t>The Video Junction</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>https://image.wedmegood.com/resized/450X/uploads/project/213864/1662714607_K_D_Haldi_448_.jpg?crop=9,223,2030,1142</t>
-  </si>
-  <si>
-    <t>Photo Junction</t>
-  </si>
-  <si>
-    <t>Ludhiana, Ludhiana</t>
-  </si>
-  <si>
-    <t>https://image.wedmegood.com/resized/450X/uploads/member/753078/1608109290_7K2A3281_2048x1365.jpg?crop=0,0,2048,1152</t>
-  </si>
-  <si>
-    <t>Shutterup Fotographi</t>
-  </si>
-  <si>
-    <t>Kolkata, Kolkata</t>
-  </si>
-  <si>
-    <t>https://image.wedmegood.com/resized/450X/uploads/member/651653/1676619268_ARO__1_.jpg?crop=12,226,2024,1139</t>
-  </si>
-  <si>
-    <t>Wedding Tasveer</t>
-  </si>
-  <si>
-    <t>https://image.wedmegood.com/resized/450X/uploads/member/234804/1527155945_A65I2485.jpg?crop=10,116,2028,1141</t>
-  </si>
-  <si>
-    <t>M.k Tasveer</t>
-  </si>
-  <si>
-    <t>Jaipur, Jaipur</t>
-  </si>
-  <si>
-    <t>https://image.wedmegood.com/resized/450X/uploads/project/263482/1694776306_24_copy__2_.jpg?crop=12,206,2024,1138</t>
-  </si>
-  <si>
-    <t>Happy stillz</t>
-  </si>
-  <si>
-    <t>Kirti Nagar, Delhi NCR</t>
-  </si>
-  <si>
-    <t>https://image.wedmegood.com/resized/450X/uploads/project/264788/1695729732_3RV_0091_Edit.JPG?crop=12,225,2024,1138</t>
-  </si>
-  <si>
-    <t>DK Wedding Studio</t>
-  </si>
-  <si>
-    <t>Delhi NCR</t>
-  </si>
-  <si>
-    <t>https://image.wedmegood.com/resized/450X/uploads/member/109205/1712230829_RVV08226.jpg?crop=5,778,1840,1035</t>
-  </si>
-  <si>
-    <t>Ravi Digital Studio</t>
-  </si>
-  <si>
-    <t>Indore</t>
-  </si>
-  <si>
-    <t>https://image.wedmegood.com/resized/450X/uploads/project/265503/1696251606_image9976.jpg?crop=12,124,2024,1139</t>
-  </si>
-  <si>
-    <t>Amritsar, Udaipur</t>
-  </si>
-  <si>
-    <t>https://image.wedmegood.com/resized/450X/uploads/project/189864/1651389890__DSC8403.jpg?crop=14,174,2025,1139</t>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS5k7xB-uPFxN2FnCaVSxlAE8Yiz3UFop6zOGa1i4bkCw&amp;s</t>
-  </si>
-  <si>
-    <t>Hyderabad, Ahmedabad</t>
-  </si>
-  <si>
-    <t>https://imgmedia.lbb.in/media/2023/07/64ba509fcaed286aa8d090d2_1689931935431.jpg</t>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSCjk1D1r5NfNu7C4-mT6-rHvy8p3QacmDh-qz9SJC8U38j6QNESIZ-Yh9Dd_037m6q43U&amp;usqp=CAU</t>
+    <t>Frequency Fusion Audio</t>
+  </si>
+  <si>
+    <t>Vijay Nagar, Indore</t>
+  </si>
+  <si>
+    <t>https://image.wedmegood.com/resized/450X/uploads/member/133217/1626158117_IMG_20200313_142755.jpg?crop=10,0,2028,1141</t>
+  </si>
+  <si>
+    <t>Frequency Fusion Audio stands at the nexus of innovation and tradition, melding cutting-edge technology with timeless musical principles. With a team of seasoned engineers and producers, they specialize in capturing the essence of every sound, from the subtle nuances of a whisper to the thunderous roar of a bassline. Their studio is a playground for experimentation, where artists are encouraged to push the boundaries of sonic expression. Whether crafting ethereal ambient tracks or high-energy dance anthems, Frequency Fusion Audio provides the tools and expertise to bring any musical vision to life.</t>
+  </si>
+  <si>
+    <t>Sonic Spectrum Studios</t>
+  </si>
+  <si>
+    <t>Bhawarkua, Indore</t>
+  </si>
+  <si>
+    <t>https://image.wedmegood.com/resized/450X/uploads/member/618892/1658320525_IMG_20220404_155718_635.jpg?crop=141,131,1843,1037</t>
+  </si>
+  <si>
+    <t>At Sonic Spectrum Studios, sound is not just heard; it's experienced in all its vivid hues and shades. With state-of-the-art equipment and acoustically optimized spaces, they offer a dynamic sonic canvas for artists to paint their musical masterpieces. From intimate solo performances to full-blown orchestral arrangements, their versatile studio can accommodate any project with precision and clarity. Sonic Spectrum Studios prides itself on its commitment to sonic excellence, ensuring that every note resonates with power and presence.</t>
+  </si>
+  <si>
+    <t>Harmony Heights Sound</t>
+  </si>
+  <si>
+    <t>Rajwada, Indore</t>
+  </si>
+  <si>
+    <t>https://image.wedmegood.com/resized/450X/uploads/member/208292/1676396765_image6331.jpg?crop=11,178,2026,1140</t>
+  </si>
+  <si>
+    <t>Nestled amidst the tranquil hills, Harmony Heights Sound exudes a sense of serenity and calm. Here, amidst the whispering trees and rustling leaves, artists find solace in the embrace of pristine soundscapes. The studio's warm, inviting atmosphere fosters creativity and collaboration, allowing musicians to connect with their inner muse. Whether recording acoustic ballads or ambient soundscapes, Harmony Heights Sound offers a sanctuary for artists to explore the depths of their creativity and craft.</t>
+  </si>
+  <si>
+    <t>Melodic Momentum Sound</t>
+  </si>
+  <si>
+    <t>Palasia, Indore</t>
+  </si>
+  <si>
+    <t>https://image.wedmegood.com/resized/450X/uploads/member/3750018/1671203994_IMG_20221028_200752.jpg?crop=0,999,2048,1152</t>
+  </si>
+  <si>
+    <t>Melodic Momentum Sound is where rhythm meets innovation, where every beat propels the listener on a journey of sonic discovery. With a focus on pushing the boundaries of traditional sound design, they specialize in crafting immersive audio experiences that captivate the imagination. From intricate percussion patterns to pulsating basslines, their studio is a playground for sonic experimentation. Melodic Momentum Sound invites artists to embrace the power of music to inspire, uplift, and move the soul.</t>
+  </si>
+  <si>
+    <t>Tranquil Tone Productions</t>
+  </si>
+  <si>
+    <t>Tilak Nagar, Indore</t>
+  </si>
+  <si>
+    <t>https://image.wedmegood.com/resized/450X/uploads/member/4359252/1685969178_IMG_0463.JPG?crop=88,102,1460,821</t>
+  </si>
+  <si>
+    <t>Tranquil Tone Productions is a haven for those seeking refuge from the cacophony of the outside world. Here, amidst the gentle hum of analog equipment and the soft glow of vintage lamps, artists find solace in the purity of sound. With a meticulous attention to detail and a commitment to sonic perfection, they specialize in capturing the essence of every performance with warmth and clarity. Tranquil Tone Productions offers a respite from the hustle and bustle of modern life, inviting artists to immerse themselves in the timeless beauty of music.</t>
+  </si>
+  <si>
+    <t>Audio Bliss Solutions</t>
+  </si>
+  <si>
+    <t>Sudama Nagar, Indore</t>
+  </si>
+  <si>
+    <t>https://image.wedmegood.com/resized/450X/uploads/member/19041/1508233912_image674.jpg?crop=3,123,847,476</t>
+  </si>
+  <si>
+    <t>Audio Bliss Solutions is dedicated to the pursuit of sonic perfection, offering a seamless blend of technical expertise and artistic vision. With a team of passionate engineers and producers, they specialize in crafting immersive audio experiences that transport listeners to new realms of consciousness. From lush orchestral arrangements to pulsating electronic beats, their studio is a playground for sonic exploration. Audio Bliss Solutions invites artists to unleash their creativity and embark on a journey of musical discovery.</t>
+  </si>
+  <si>
+    <t>Rhythm Republic Sound</t>
+  </si>
+  <si>
+    <t>Pardesipura, Indore</t>
+  </si>
+  <si>
+    <t>https://image.wedmegood.com/resized/450X/uploads/member/636270/1707499775_IMG_2640.JPG?crop=5,780,2038,1147</t>
+  </si>
+  <si>
+    <t>Rhythm Republic Sound is where rhythm reigns supreme, where every beat is a heartbeat and every melody is a heartbeat. With a focus on capturing the energy and vitality of live performances, they specialize in crafting dynamic, punchy mixes that ignite the senses. From funky basslines to soulful grooves, their studio is a hub of rhythmic innovation. Rhythm Republic Sound invites artists to unleash their inner groove and embrace the power of music to move the body and soul.</t>
+  </si>
+  <si>
+    <t>SoundWave Studios</t>
+  </si>
+  <si>
+    <t>Bengali Square, Indore</t>
+  </si>
+  <si>
+    <t>https://image.wedmegood.com/resized/450X/uploads/vendor_cover_pic/4460/a7b72329-13b2-4ce6-8029-2dc62a04e0cf.jpg</t>
+  </si>
+  <si>
+    <t>SoundWave Studios is a beacon of creativity in the ever-expanding sea of sound. With a commitment to pushing the boundaries of sonic possibility, they specialize in crafting immersive audio experiences that defy convention. From experimental electronic compositions to avant-garde soundscapes, their studio is a playground for sonic experimentation. SoundWave Studios invites artists to embrace the power of sound to challenge, inspire, and transform.</t>
+  </si>
+  <si>
+    <t>Serenade Sound Systems</t>
+  </si>
+  <si>
+    <t>Rau, Indore</t>
+  </si>
+  <si>
+    <t>https://image.wedmegood.com/resized/450X/uploads/member/193838/1504781558_IMG_20161003_WA0001.jpg?crop=7,14,1218,685</t>
+  </si>
+  <si>
+    <t>Serenade Sound Systems is dedicated to the art of sonic storytelling, crafting immersive audio experiences that captivate the imagination and stir the soul. With a focus on creating rich, textured soundscapes, they specialize in bringing stories to life through sound. Whether scoring a film, recording a podcast, or producing a music album, their studio is a sanctuary for artists to explore the depths of their creativity. Serenade Sound Systems invites artists to embark on a journey of sonic discovery and create lasting memories through the power of music.</t>
+  </si>
+  <si>
+    <t>Echo Enclave Audio</t>
+  </si>
+  <si>
+    <t>MR 10 Road, Indore</t>
+  </si>
+  <si>
+    <t>https://image.wedmegood.com/resized/450X/uploads/member/496157/1547111896_1547096415_Rke__5_.jpg</t>
+  </si>
+  <si>
+    <t>Echo Enclave Audio is where echoes of the past meet the sounds of the future, creating a harmonious blend of tradition and innovation. With a passion for vintage equipment and analog warmth, they specialize in capturing the essence of every performance with timeless elegance. From classic rock anthems to soulful jazz ballads, their studio is a homage to the rich tapestry of musical history. Echo Enclave Audio invites artists to step into the past and embrace the beauty of analog sound in a digital world.</t>
+  </si>
+  <si>
+    <t>Dynamic Duet Sound</t>
+  </si>
+  <si>
+    <t>Mahalaxmi Nagar, Indore</t>
+  </si>
+  <si>
+    <t>https://image.wedmegood.com/resized/450X/uploads/member/196302/1505561285_12472380_10204486985329650_4155279212026084255_n.jpg</t>
+  </si>
+  <si>
+    <t>Melodious Magic Mixers is where sonic alchemy meets artistic expression, transforming raw audio into pure musical gold. With a keen ear for detail and a passion for perfection, they specialize in crafting mixes that elevate the listener's experience to new heights. Whether balancing the delicate interplay of instruments or sculpting the perfect sonic landscape, their studio is a playground for creative exploration. Melodious Magic Mixers invites artists to entrust their music to the hands of skilled craftsmen and witness the transformation of sound into magic.</t>
+  </si>
+  <si>
+    <t>Melodious Magic Mixers</t>
+  </si>
+  <si>
+    <t>Navlakha, Indore</t>
+  </si>
+  <si>
+    <t>https://image.wedmegood.com/resized/450X/uploads/member/468052/1542696114_42285008_1889695984429409_6578827043390095360_n.jpg</t>
+  </si>
+  <si>
+    <t>Sonic Serenity Solutions is dedicated to the pursuit of sonic tranquility, offering a haven for artists to escape the chaos of the world and immerse themselves in the beauty of sound. With a focus on creating serene, meditative environments, they specialize in crafting ambient soundscapes that soothe the soul and calm the mind. Whether recording nature sounds or producing ambient electronic music, their studio is a sanctuary for sonic relaxation. Sonic Serenity Solutions invites artists to embrace the healing power of sound and find peace amidst the noise of the world.</t>
+  </si>
+  <si>
+    <t>Sonic Serenity Solutions</t>
+  </si>
+  <si>
+    <t>Annapurna, Indore</t>
+  </si>
+  <si>
+    <t>https://image.wedmegood.com/resized/450X/uploads/member/1930956/1617956100_WhatsApp_Image_2021_04_09_at_1.42.13_PM__12_.jpeg</t>
+  </si>
+  <si>
+    <t>Harmony Hub Audio is a nexus of creativity and innovation, where artists come together to explore the boundless possibilities of sound. With a focus on fostering collaboration and community, they specialize in providing a platform for artists to share ideas, inspire one another, and create music that transcends boundaries. Whether hosting workshops, jam sessions</t>
+  </si>
+  <si>
+    <t>Harmony Hub Audio</t>
+  </si>
+  <si>
+    <t>Lokmanya Nagar, Indore</t>
+  </si>
+  <si>
+    <t>https://hire4event.com/blogs/wp-content/uploads/2023/04/Wedding-sound-system-on-hire-in-Delhi-Ncr.jpg</t>
+  </si>
+  <si>
+    <t>Vibrant Vibes Studios</t>
+  </si>
+  <si>
+    <t>Snehnagar, Indore</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSPYLZ93YalwfPvd-aZqTqGblyismoNxbjIVfsWmZrWPg&amp;s</t>
+  </si>
+  <si>
+    <t>Sonic Sanctuary Sound</t>
+  </si>
+  <si>
+    <t>Scheme No. 54, Indore</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT5884JCyVWJ9seVmRZmp5-cnkOyVecLc21mRiSosHflA&amp;s</t>
+  </si>
+  <si>
+    <t>Audio Ascendancy Studios</t>
+  </si>
+  <si>
+    <t>Scheme No. 74, Indore</t>
+  </si>
+  <si>
+    <t>https://cdn0.weddingwire.in/vendor/3426/3_2/960/jpg/wedding-entertainment-mitali-musical-group-wedding-entertainment-12_15_373426-162558918342716.jpeg</t>
+  </si>
+  <si>
+    <t>Melody Manor Sound</t>
+  </si>
+  <si>
+    <t>Sukhliya, Indore</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQHjtSBsTo69nB2ofOVlKVNGJ4s5CGjKHZ7s2CwYOWNibCjyHGAHqMeFEn75rgik95z8Ho&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>Seraphic Soundscapes</t>
+  </si>
+  <si>
+    <t>Nipania, Indore</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTetr6Nab1xIApSqGHc-IIYqItNUg1Qsb4fFXHHfwhxjfCWW_mXCG9oRvkHuIoZADVLyrA&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>Bassline Beats</t>
+  </si>
+  <si>
+    <t>Airport Road, Indore</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRDI_3EmHKMZR2iu8ONqDj3kS-sOgQKSW3pZ9GQlezW9bbh2cweSzqVIaka_9GdNeJIH0Y&amp;usqp=CAU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -189,15 +279,15 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="12.0"/>
       <color rgb="FF0D0D0D"/>
       <name val="Söhne"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -207,7 +297,7 @@
     <font>
       <u/>
       <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -215,6 +305,43 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Söhne"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -237,9 +364,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -250,29 +380,50 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -508,1391 +659,1423 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="54.75" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
-        <v>40000.0</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="3">
+        <v>5000.0</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <v>4.5</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>9.30255828E9</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2">
-        <v>70000.0</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>5.5</v>
       </c>
       <c r="F3" s="8">
         <v>9.30255828E9</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2">
-        <v>50000.0</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="3">
+        <v>54000.0</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>5.5</v>
       </c>
       <c r="F4" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>14</v>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2">
-        <v>30000.0</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="6">
+      <c r="C5" s="3">
+        <v>3000.0</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7">
         <v>5.5</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>9.998887777E9</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>14</v>
+      <c r="G5" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2">
-        <v>450000.0</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="6">
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3">
+        <v>20000.0</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7">
         <v>5.5</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>9.998887777E9</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>14</v>
+      <c r="G6" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2">
-        <v>362000.0</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3000.0</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="7">
         <v>3.5</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>9.856235841E9</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>14</v>
+      <c r="G7" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2">
-        <v>440000.0</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3">
+        <v>20000.0</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="7">
         <v>2.2</v>
       </c>
       <c r="F8" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>14</v>
+      <c r="G8" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2">
-        <v>518000.0</v>
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10000.0</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="6">
+        <v>37</v>
+      </c>
+      <c r="E9" s="7">
         <v>3.3</v>
       </c>
       <c r="F9" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>14</v>
+      <c r="G9" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2">
-        <v>596000.0</v>
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4000.0</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="6">
+        <v>41</v>
+      </c>
+      <c r="E10" s="7">
         <v>5.5</v>
       </c>
       <c r="F10" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>14</v>
+      <c r="G10" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="2">
-        <v>674000.0</v>
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7000.0</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="6">
+        <v>45</v>
+      </c>
+      <c r="E11" s="7">
         <v>4.5</v>
       </c>
       <c r="F11" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>14</v>
+      <c r="G11" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2">
-        <v>752000.0</v>
+      <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8000.0</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="6">
+        <v>49</v>
+      </c>
+      <c r="E12" s="7">
         <v>5.5</v>
       </c>
       <c r="F12" s="8">
         <v>9.30255828E9</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>10</v>
+      <c r="G12" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="2">
-        <v>830000.0</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5000.0</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="6">
+        <v>53</v>
+      </c>
+      <c r="E13" s="7">
         <v>3.3</v>
       </c>
       <c r="F13" s="10">
         <v>7.863524841E9</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>10</v>
+      <c r="G13" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="2">
-        <v>908000.0</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4000.0</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="7">
         <v>5.5</v>
       </c>
       <c r="F14" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>10</v>
+      <c r="G14" s="12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="2">
-        <v>986000.0</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4000.0</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="7">
         <v>3.2</v>
       </c>
       <c r="F15" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>10</v>
+      <c r="G15" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1064000.0</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3">
+        <v>50000.0</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="7">
         <v>5.5</v>
       </c>
       <c r="F16" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>10</v>
+      <c r="G16" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1064000.0</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3">
+        <v>60000.0</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="7">
         <v>5.5</v>
       </c>
       <c r="F17" s="8">
         <v>9.856235841E9</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>10</v>
+      <c r="G17" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="11"/>
+      <c r="A18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="15">
+        <v>90000.0</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="17"/>
     </row>
     <row r="19">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="11"/>
+      <c r="A19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="3">
+        <v>50000.0</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="17"/>
     </row>
     <row r="20">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="11"/>
+      <c r="A20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="3">
+        <v>82000.0</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="17"/>
     </row>
     <row r="21">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="11"/>
+      <c r="A21" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="3">
+        <v>75000.0</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="17"/>
     </row>
     <row r="22">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="11"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="11"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="11"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="11"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="11"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="11"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="17"/>
     </row>
     <row r="28">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="11"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="17"/>
     </row>
     <row r="29">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="11"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="17"/>
     </row>
     <row r="30">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="11"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="17"/>
     </row>
     <row r="31">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="11"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="32">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="4"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33">
-      <c r="A33" s="4"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
     </row>
     <row r="34">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="4"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
     </row>
     <row r="36">
-      <c r="A36" s="12"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="4"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="15"/>
     </row>
     <row r="37">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
     </row>
     <row r="38">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
     </row>
     <row r="39">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="13"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
     </row>
     <row r="40">
-      <c r="A40" s="4"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
     </row>
     <row r="41">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="4"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="15"/>
     </row>
     <row r="42">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="4"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="15"/>
     </row>
     <row r="43">
-      <c r="A43" s="12"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="4"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="15"/>
     </row>
     <row r="44">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="13"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="21"/>
     </row>
     <row r="45">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="D45" s="4"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="D45" s="15"/>
     </row>
     <row r="46">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="D46" s="13"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="D47" s="4"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="D47" s="15"/>
     </row>
     <row r="48">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="D48" s="15"/>
     </row>
     <row r="49">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="4"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="15"/>
     </row>
     <row r="50">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="4"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="15"/>
     </row>
     <row r="51">
-      <c r="A51" s="4"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="13"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="21"/>
     </row>
     <row r="52">
-      <c r="A52" s="12"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="4"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="13"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="21"/>
     </row>
     <row r="54">
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="4"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="15"/>
     </row>
     <row r="55">
-      <c r="B55" s="4"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="21"/>
     </row>
     <row r="56">
-      <c r="C56" s="12"/>
-      <c r="D56" s="4"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="15"/>
     </row>
     <row r="57">
-      <c r="C57" s="12"/>
-      <c r="D57" s="13"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="21"/>
     </row>
     <row r="58">
-      <c r="C58" s="12"/>
-      <c r="D58" s="4"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="15"/>
     </row>
     <row r="59">
-      <c r="C59" s="12"/>
-      <c r="D59" s="4"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="15"/>
     </row>
     <row r="60">
-      <c r="C60" s="12"/>
-      <c r="D60" s="13"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="21"/>
     </row>
     <row r="61">
-      <c r="C61" s="12"/>
-      <c r="D61" s="4"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="15"/>
     </row>
     <row r="62">
-      <c r="C62" s="12"/>
-      <c r="D62" s="13"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="21"/>
     </row>
     <row r="63">
-      <c r="D63" s="13"/>
+      <c r="D63" s="21"/>
     </row>
     <row r="64">
-      <c r="D64" s="13"/>
+      <c r="D64" s="21"/>
     </row>
     <row r="65">
-      <c r="D65" s="13"/>
+      <c r="D65" s="21"/>
     </row>
     <row r="66">
-      <c r="D66" s="13"/>
+      <c r="D66" s="21"/>
     </row>
     <row r="67">
-      <c r="D67" s="13"/>
+      <c r="D67" s="21"/>
     </row>
     <row r="68">
-      <c r="D68" s="13"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69">
-      <c r="D69" s="13"/>
+      <c r="D69" s="21"/>
     </row>
     <row r="70">
-      <c r="D70" s="12"/>
+      <c r="D70" s="20"/>
     </row>
     <row r="71">
-      <c r="D71" s="4"/>
+      <c r="D71" s="15"/>
     </row>
     <row r="72">
-      <c r="D72" s="4"/>
+      <c r="D72" s="15"/>
     </row>
     <row r="73">
-      <c r="D73" s="4"/>
+      <c r="D73" s="15"/>
     </row>
     <row r="74">
-      <c r="D74" s="4"/>
+      <c r="D74" s="15"/>
     </row>
     <row r="75">
-      <c r="D75" s="4"/>
+      <c r="D75" s="15"/>
     </row>
     <row r="76">
-      <c r="D76" s="4"/>
+      <c r="D76" s="15"/>
     </row>
     <row r="77">
-      <c r="D77" s="4"/>
+      <c r="D77" s="15"/>
     </row>
     <row r="78">
-      <c r="D78" s="4"/>
+      <c r="D78" s="15"/>
     </row>
     <row r="79">
-      <c r="D79" s="4"/>
+      <c r="D79" s="15"/>
     </row>
     <row r="80">
-      <c r="D80" s="4"/>
+      <c r="D80" s="15"/>
     </row>
     <row r="81">
-      <c r="D81" s="4"/>
+      <c r="D81" s="15"/>
     </row>
     <row r="82">
-      <c r="D82" s="4"/>
+      <c r="D82" s="15"/>
     </row>
     <row r="83">
-      <c r="D83" s="4"/>
+      <c r="D83" s="15"/>
     </row>
     <row r="84">
-      <c r="D84" s="4"/>
+      <c r="D84" s="15"/>
     </row>
     <row r="85">
-      <c r="D85" s="4"/>
+      <c r="D85" s="15"/>
     </row>
     <row r="86">
-      <c r="D86" s="4"/>
+      <c r="D86" s="15"/>
     </row>
     <row r="87">
-      <c r="D87" s="4"/>
+      <c r="D87" s="15"/>
     </row>
     <row r="88">
-      <c r="D88" s="4"/>
+      <c r="D88" s="15"/>
     </row>
     <row r="89">
-      <c r="D89" s="4"/>
+      <c r="D89" s="15"/>
     </row>
     <row r="90">
-      <c r="D90" s="4"/>
+      <c r="D90" s="15"/>
     </row>
     <row r="91">
-      <c r="D91" s="4"/>
+      <c r="D91" s="15"/>
     </row>
     <row r="92">
-      <c r="D92" s="4"/>
+      <c r="D92" s="15"/>
     </row>
     <row r="93">
-      <c r="D93" s="4"/>
+      <c r="D93" s="15"/>
     </row>
     <row r="94">
-      <c r="D94" s="4"/>
+      <c r="D94" s="15"/>
     </row>
     <row r="95">
-      <c r="D95" s="12"/>
+      <c r="D95" s="20"/>
     </row>
     <row r="96">
-      <c r="D96" s="4"/>
+      <c r="D96" s="15"/>
     </row>
     <row r="97">
-      <c r="D97" s="4"/>
+      <c r="D97" s="15"/>
     </row>
     <row r="98">
-      <c r="D98" s="4"/>
+      <c r="D98" s="15"/>
     </row>
     <row r="99">
-      <c r="D99" s="4"/>
+      <c r="D99" s="15"/>
     </row>
     <row r="100">
-      <c r="D100" s="4"/>
+      <c r="D100" s="15"/>
     </row>
     <row r="101">
-      <c r="D101" s="4"/>
+      <c r="D101" s="15"/>
     </row>
     <row r="102">
-      <c r="D102" s="4"/>
+      <c r="D102" s="15"/>
     </row>
     <row r="103">
-      <c r="D103" s="4"/>
+      <c r="D103" s="15"/>
     </row>
     <row r="104">
-      <c r="D104" s="4"/>
+      <c r="D104" s="15"/>
     </row>
     <row r="105">
-      <c r="D105" s="4"/>
+      <c r="D105" s="15"/>
     </row>
     <row r="106">
-      <c r="D106" s="4"/>
+      <c r="D106" s="15"/>
     </row>
     <row r="107">
-      <c r="D107" s="4"/>
+      <c r="D107" s="15"/>
     </row>
     <row r="108">
-      <c r="D108" s="4"/>
+      <c r="D108" s="15"/>
     </row>
     <row r="109">
-      <c r="D109" s="4"/>
+      <c r="D109" s="15"/>
     </row>
     <row r="110">
-      <c r="D110" s="4"/>
+      <c r="D110" s="15"/>
     </row>
     <row r="111">
-      <c r="D111" s="4"/>
+      <c r="D111" s="15"/>
     </row>
     <row r="112">
-      <c r="D112" s="4"/>
+      <c r="D112" s="15"/>
     </row>
     <row r="113">
-      <c r="D113" s="4"/>
+      <c r="D113" s="15"/>
     </row>
     <row r="114">
-      <c r="D114" s="4"/>
+      <c r="D114" s="15"/>
     </row>
     <row r="115">
-      <c r="D115" s="4"/>
+      <c r="D115" s="15"/>
     </row>
     <row r="116">
-      <c r="D116" s="4"/>
+      <c r="D116" s="15"/>
     </row>
     <row r="117">
-      <c r="D117" s="4"/>
+      <c r="D117" s="15"/>
     </row>
     <row r="118">
-      <c r="D118" s="4"/>
+      <c r="D118" s="15"/>
     </row>
     <row r="119">
-      <c r="D119" s="4"/>
+      <c r="D119" s="15"/>
     </row>
     <row r="120">
-      <c r="D120" s="12"/>
+      <c r="D120" s="20"/>
     </row>
     <row r="121">
-      <c r="D121" s="4"/>
+      <c r="D121" s="15"/>
     </row>
     <row r="122">
-      <c r="D122" s="4"/>
+      <c r="D122" s="15"/>
     </row>
     <row r="123">
-      <c r="D123" s="4"/>
+      <c r="D123" s="15"/>
     </row>
     <row r="124">
-      <c r="D124" s="4"/>
+      <c r="D124" s="15"/>
     </row>
     <row r="125">
-      <c r="D125" s="4"/>
+      <c r="D125" s="15"/>
     </row>
     <row r="126">
-      <c r="D126" s="4"/>
+      <c r="D126" s="15"/>
     </row>
     <row r="127">
-      <c r="D127" s="4"/>
+      <c r="D127" s="15"/>
     </row>
     <row r="128">
-      <c r="D128" s="4"/>
+      <c r="D128" s="15"/>
     </row>
     <row r="129">
-      <c r="D129" s="4"/>
+      <c r="D129" s="15"/>
     </row>
     <row r="130">
-      <c r="D130" s="4"/>
+      <c r="D130" s="15"/>
     </row>
     <row r="131">
-      <c r="D131" s="4"/>
+      <c r="D131" s="15"/>
     </row>
     <row r="132">
-      <c r="D132" s="4"/>
+      <c r="D132" s="15"/>
     </row>
     <row r="133">
-      <c r="D133" s="4"/>
+      <c r="D133" s="15"/>
     </row>
     <row r="134">
-      <c r="D134" s="4"/>
+      <c r="D134" s="15"/>
     </row>
     <row r="135">
-      <c r="D135" s="4"/>
+      <c r="D135" s="15"/>
     </row>
     <row r="136">
-      <c r="D136" s="4"/>
+      <c r="D136" s="15"/>
     </row>
     <row r="137">
-      <c r="D137" s="4"/>
+      <c r="D137" s="15"/>
     </row>
     <row r="138">
-      <c r="D138" s="4"/>
+      <c r="D138" s="15"/>
     </row>
     <row r="139">
-      <c r="D139" s="4"/>
+      <c r="D139" s="15"/>
     </row>
     <row r="140">
-      <c r="D140" s="4"/>
+      <c r="D140" s="15"/>
     </row>
     <row r="141">
-      <c r="D141" s="4"/>
+      <c r="D141" s="15"/>
     </row>
     <row r="142">
-      <c r="D142" s="4"/>
+      <c r="D142" s="15"/>
     </row>
     <row r="143">
-      <c r="D143" s="4"/>
+      <c r="D143" s="15"/>
     </row>
     <row r="144">
-      <c r="D144" s="4"/>
+      <c r="D144" s="15"/>
     </row>
     <row r="145">
-      <c r="D145" s="12"/>
+      <c r="D145" s="20"/>
     </row>
     <row r="146">
-      <c r="D146" s="4"/>
+      <c r="D146" s="15"/>
     </row>
     <row r="147">
-      <c r="D147" s="4"/>
+      <c r="D147" s="15"/>
     </row>
     <row r="148">
-      <c r="D148" s="4"/>
+      <c r="D148" s="15"/>
     </row>
     <row r="149">
-      <c r="D149" s="4"/>
+      <c r="D149" s="15"/>
     </row>
     <row r="150">
-      <c r="D150" s="4"/>
+      <c r="D150" s="15"/>
     </row>
     <row r="151">
-      <c r="D151" s="4"/>
+      <c r="D151" s="15"/>
     </row>
     <row r="152">
-      <c r="D152" s="4"/>
+      <c r="D152" s="15"/>
     </row>
     <row r="153">
-      <c r="D153" s="4"/>
+      <c r="D153" s="15"/>
     </row>
     <row r="154">
-      <c r="D154" s="4"/>
+      <c r="D154" s="15"/>
     </row>
     <row r="155">
-      <c r="D155" s="4"/>
+      <c r="D155" s="15"/>
     </row>
     <row r="156">
-      <c r="D156" s="4"/>
+      <c r="D156" s="15"/>
     </row>
     <row r="157">
-      <c r="D157" s="4"/>
+      <c r="D157" s="15"/>
     </row>
     <row r="158">
-      <c r="D158" s="4"/>
+      <c r="D158" s="15"/>
     </row>
     <row r="159">
-      <c r="D159" s="4"/>
+      <c r="D159" s="15"/>
     </row>
     <row r="160">
-      <c r="D160" s="4"/>
+      <c r="D160" s="15"/>
     </row>
     <row r="161">
-      <c r="D161" s="4"/>
+      <c r="D161" s="15"/>
     </row>
     <row r="162">
-      <c r="D162" s="4"/>
+      <c r="D162" s="15"/>
     </row>
     <row r="163">
-      <c r="D163" s="4"/>
+      <c r="D163" s="15"/>
     </row>
     <row r="164">
-      <c r="D164" s="4"/>
+      <c r="D164" s="15"/>
     </row>
     <row r="165">
-      <c r="D165" s="4"/>
+      <c r="D165" s="15"/>
     </row>
     <row r="166">
-      <c r="D166" s="4"/>
+      <c r="D166" s="15"/>
     </row>
     <row r="167">
-      <c r="D167" s="4"/>
+      <c r="D167" s="15"/>
     </row>
     <row r="168">
-      <c r="D168" s="4"/>
+      <c r="D168" s="15"/>
     </row>
     <row r="169">
-      <c r="D169" s="4"/>
+      <c r="D169" s="15"/>
     </row>
     <row r="170">
-      <c r="D170" s="12"/>
+      <c r="D170" s="20"/>
     </row>
     <row r="171">
-      <c r="D171" s="4"/>
+      <c r="D171" s="15"/>
     </row>
     <row r="172">
-      <c r="D172" s="4"/>
+      <c r="D172" s="15"/>
     </row>
     <row r="173">
-      <c r="D173" s="4"/>
+      <c r="D173" s="15"/>
     </row>
     <row r="174">
-      <c r="D174" s="4"/>
+      <c r="D174" s="15"/>
     </row>
     <row r="175">
-      <c r="D175" s="4"/>
+      <c r="D175" s="15"/>
     </row>
     <row r="176">
-      <c r="D176" s="4"/>
+      <c r="D176" s="15"/>
     </row>
     <row r="177">
-      <c r="D177" s="4"/>
+      <c r="D177" s="15"/>
     </row>
     <row r="178">
-      <c r="D178" s="4"/>
+      <c r="D178" s="15"/>
     </row>
     <row r="179">
-      <c r="D179" s="4"/>
+      <c r="D179" s="15"/>
     </row>
     <row r="180">
-      <c r="D180" s="4"/>
+      <c r="D180" s="15"/>
     </row>
     <row r="181">
-      <c r="D181" s="4"/>
+      <c r="D181" s="15"/>
     </row>
     <row r="182">
-      <c r="D182" s="4"/>
+      <c r="D182" s="15"/>
     </row>
     <row r="183">
-      <c r="D183" s="4"/>
+      <c r="D183" s="15"/>
     </row>
     <row r="184">
-      <c r="D184" s="4"/>
+      <c r="D184" s="15"/>
     </row>
     <row r="185">
-      <c r="D185" s="4"/>
+      <c r="D185" s="15"/>
     </row>
     <row r="186">
-      <c r="D186" s="4"/>
+      <c r="D186" s="15"/>
     </row>
     <row r="187">
-      <c r="D187" s="4"/>
+      <c r="D187" s="15"/>
     </row>
     <row r="188">
-      <c r="D188" s="4"/>
+      <c r="D188" s="15"/>
     </row>
     <row r="189">
-      <c r="D189" s="4"/>
+      <c r="D189" s="15"/>
     </row>
     <row r="190">
-      <c r="D190" s="4"/>
+      <c r="D190" s="15"/>
     </row>
     <row r="191">
-      <c r="D191" s="4"/>
+      <c r="D191" s="15"/>
     </row>
     <row r="192">
-      <c r="D192" s="4"/>
+      <c r="D192" s="15"/>
     </row>
     <row r="193">
-      <c r="D193" s="4"/>
+      <c r="D193" s="15"/>
     </row>
     <row r="194">
-      <c r="D194" s="4"/>
+      <c r="D194" s="15"/>
     </row>
     <row r="195">
-      <c r="D195" s="12"/>
+      <c r="D195" s="20"/>
     </row>
     <row r="196">
-      <c r="D196" s="4"/>
+      <c r="D196" s="15"/>
     </row>
     <row r="197">
-      <c r="D197" s="4"/>
+      <c r="D197" s="15"/>
     </row>
     <row r="198">
-      <c r="D198" s="4"/>
+      <c r="D198" s="15"/>
     </row>
     <row r="199">
-      <c r="D199" s="4"/>
+      <c r="D199" s="15"/>
     </row>
     <row r="200">
-      <c r="D200" s="4"/>
+      <c r="D200" s="15"/>
     </row>
     <row r="201">
-      <c r="D201" s="4"/>
+      <c r="D201" s="15"/>
     </row>
     <row r="202">
-      <c r="D202" s="4"/>
+      <c r="D202" s="15"/>
     </row>
     <row r="203">
-      <c r="D203" s="4"/>
+      <c r="D203" s="15"/>
     </row>
     <row r="204">
-      <c r="D204" s="4"/>
+      <c r="D204" s="15"/>
     </row>
     <row r="205">
-      <c r="D205" s="4"/>
+      <c r="D205" s="15"/>
     </row>
     <row r="206">
-      <c r="D206" s="4"/>
+      <c r="D206" s="15"/>
     </row>
     <row r="207">
-      <c r="D207" s="4"/>
+      <c r="D207" s="15"/>
     </row>
     <row r="208">
-      <c r="D208" s="4"/>
+      <c r="D208" s="15"/>
     </row>
     <row r="209">
-      <c r="D209" s="4"/>
+      <c r="D209" s="15"/>
     </row>
     <row r="210">
-      <c r="D210" s="4"/>
+      <c r="D210" s="15"/>
     </row>
     <row r="211">
-      <c r="D211" s="4"/>
+      <c r="D211" s="15"/>
     </row>
     <row r="212">
-      <c r="D212" s="4"/>
+      <c r="D212" s="15"/>
     </row>
     <row r="213">
-      <c r="D213" s="4"/>
+      <c r="D213" s="15"/>
     </row>
     <row r="214">
-      <c r="D214" s="4"/>
+      <c r="D214" s="15"/>
     </row>
     <row r="215">
-      <c r="D215" s="4"/>
+      <c r="D215" s="15"/>
     </row>
     <row r="216">
-      <c r="D216" s="4"/>
+      <c r="D216" s="15"/>
     </row>
     <row r="217">
-      <c r="D217" s="4"/>
+      <c r="D217" s="15"/>
     </row>
     <row r="218">
-      <c r="D218" s="4"/>
+      <c r="D218" s="15"/>
     </row>
     <row r="219">
-      <c r="D219" s="4"/>
+      <c r="D219" s="15"/>
     </row>
     <row r="220">
-      <c r="D220" s="12"/>
+      <c r="D220" s="20"/>
     </row>
     <row r="221">
-      <c r="D221" s="4"/>
+      <c r="D221" s="15"/>
     </row>
     <row r="222">
-      <c r="D222" s="4"/>
+      <c r="D222" s="15"/>
     </row>
     <row r="223">
-      <c r="D223" s="4"/>
+      <c r="D223" s="15"/>
     </row>
     <row r="224">
-      <c r="D224" s="4"/>
+      <c r="D224" s="15"/>
     </row>
     <row r="225">
-      <c r="D225" s="4"/>
+      <c r="D225" s="15"/>
     </row>
     <row r="226">
-      <c r="D226" s="4"/>
+      <c r="D226" s="15"/>
     </row>
     <row r="227">
-      <c r="D227" s="4"/>
+      <c r="D227" s="15"/>
     </row>
     <row r="228">
-      <c r="D228" s="4"/>
+      <c r="D228" s="15"/>
     </row>
     <row r="229">
-      <c r="D229" s="4"/>
+      <c r="D229" s="15"/>
     </row>
     <row r="230">
-      <c r="D230" s="4"/>
+      <c r="D230" s="15"/>
     </row>
     <row r="231">
-      <c r="D231" s="4"/>
+      <c r="D231" s="15"/>
     </row>
     <row r="232">
-      <c r="D232" s="4"/>
+      <c r="D232" s="15"/>
     </row>
     <row r="233">
-      <c r="D233" s="4"/>
+      <c r="D233" s="15"/>
     </row>
     <row r="234">
-      <c r="D234" s="4"/>
+      <c r="D234" s="15"/>
     </row>
     <row r="235">
-      <c r="D235" s="4"/>
+      <c r="D235" s="15"/>
     </row>
     <row r="236">
-      <c r="D236" s="4"/>
+      <c r="D236" s="15"/>
     </row>
     <row r="237">
-      <c r="D237" s="4"/>
+      <c r="D237" s="15"/>
     </row>
     <row r="238">
-      <c r="D238" s="4"/>
+      <c r="D238" s="15"/>
     </row>
     <row r="239">
-      <c r="D239" s="4"/>
+      <c r="D239" s="15"/>
     </row>
     <row r="240">
-      <c r="D240" s="4"/>
+      <c r="D240" s="15"/>
     </row>
     <row r="241">
-      <c r="D241" s="4"/>
+      <c r="D241" s="15"/>
     </row>
     <row r="242">
-      <c r="D242" s="4"/>
+      <c r="D242" s="15"/>
     </row>
     <row r="243">
-      <c r="D243" s="4"/>
+      <c r="D243" s="15"/>
     </row>
     <row r="244">
-      <c r="D244" s="4"/>
+      <c r="D244" s="15"/>
     </row>
     <row r="245">
-      <c r="D245" s="12"/>
+      <c r="D245" s="20"/>
     </row>
     <row r="246">
-      <c r="D246" s="4"/>
+      <c r="D246" s="15"/>
     </row>
     <row r="247">
-      <c r="D247" s="4"/>
+      <c r="D247" s="15"/>
     </row>
     <row r="248">
-      <c r="D248" s="4"/>
+      <c r="D248" s="15"/>
     </row>
     <row r="249">
-      <c r="D249" s="4"/>
+      <c r="D249" s="15"/>
     </row>
     <row r="250">
-      <c r="D250" s="4"/>
+      <c r="D250" s="15"/>
     </row>
     <row r="251">
-      <c r="D251" s="4"/>
+      <c r="D251" s="15"/>
     </row>
     <row r="252">
-      <c r="D252" s="4"/>
+      <c r="D252" s="15"/>
     </row>
     <row r="253">
-      <c r="D253" s="4"/>
+      <c r="D253" s="15"/>
     </row>
     <row r="254">
-      <c r="D254" s="4"/>
+      <c r="D254" s="15"/>
     </row>
     <row r="255">
-      <c r="D255" s="4"/>
+      <c r="D255" s="15"/>
     </row>
     <row r="256">
-      <c r="D256" s="4"/>
+      <c r="D256" s="15"/>
     </row>
     <row r="257">
-      <c r="D257" s="4"/>
+      <c r="D257" s="15"/>
     </row>
     <row r="258">
-      <c r="D258" s="4"/>
+      <c r="D258" s="15"/>
     </row>
     <row r="259">
-      <c r="D259" s="4"/>
+      <c r="D259" s="15"/>
     </row>
     <row r="260">
-      <c r="D260" s="4"/>
+      <c r="D260" s="15"/>
     </row>
     <row r="261">
-      <c r="D261" s="4"/>
+      <c r="D261" s="15"/>
     </row>
     <row r="262">
-      <c r="D262" s="4"/>
+      <c r="D262" s="15"/>
     </row>
     <row r="263">
-      <c r="D263" s="4"/>
+      <c r="D263" s="15"/>
     </row>
     <row r="264">
-      <c r="D264" s="4"/>
+      <c r="D264" s="15"/>
     </row>
     <row r="265">
-      <c r="D265" s="4"/>
+      <c r="D265" s="15"/>
     </row>
     <row r="266">
-      <c r="D266" s="4"/>
+      <c r="D266" s="15"/>
     </row>
     <row r="267">
-      <c r="D267" s="4"/>
+      <c r="D267" s="15"/>
     </row>
     <row r="268">
-      <c r="D268" s="4"/>
+      <c r="D268" s="15"/>
     </row>
     <row r="269">
-      <c r="D269" s="4"/>
+      <c r="D269" s="15"/>
     </row>
     <row r="270">
-      <c r="D270" s="12"/>
+      <c r="D270" s="20"/>
     </row>
     <row r="271">
-      <c r="D271" s="4"/>
+      <c r="D271" s="15"/>
     </row>
     <row r="272">
-      <c r="D272" s="4"/>
+      <c r="D272" s="15"/>
     </row>
     <row r="273">
-      <c r="D273" s="4"/>
+      <c r="D273" s="15"/>
     </row>
     <row r="274">
-      <c r="D274" s="4"/>
+      <c r="D274" s="15"/>
     </row>
     <row r="275">
-      <c r="D275" s="4"/>
+      <c r="D275" s="15"/>
     </row>
     <row r="276">
-      <c r="D276" s="4"/>
+      <c r="D276" s="15"/>
     </row>
     <row r="277">
-      <c r="D277" s="4"/>
+      <c r="D277" s="15"/>
     </row>
     <row r="278">
-      <c r="D278" s="4"/>
+      <c r="D278" s="15"/>
     </row>
     <row r="279">
-      <c r="D279" s="4"/>
+      <c r="D279" s="15"/>
     </row>
     <row r="280">
-      <c r="D280" s="4"/>
+      <c r="D280" s="15"/>
     </row>
     <row r="281">
-      <c r="D281" s="4"/>
+      <c r="D281" s="15"/>
     </row>
     <row r="282">
-      <c r="D282" s="4"/>
+      <c r="D282" s="15"/>
     </row>
     <row r="283">
-      <c r="D283" s="4"/>
+      <c r="D283" s="15"/>
     </row>
     <row r="284">
-      <c r="D284" s="4"/>
+      <c r="D284" s="15"/>
     </row>
     <row r="285">
-      <c r="D285" s="4"/>
+      <c r="D285" s="15"/>
     </row>
     <row r="286">
-      <c r="D286" s="4"/>
+      <c r="D286" s="15"/>
     </row>
     <row r="287">
-      <c r="D287" s="4"/>
+      <c r="D287" s="15"/>
     </row>
     <row r="288">
-      <c r="D288" s="4"/>
+      <c r="D288" s="15"/>
     </row>
     <row r="289">
-      <c r="D289" s="4"/>
+      <c r="D289" s="15"/>
     </row>
     <row r="290">
-      <c r="D290" s="4"/>
+      <c r="D290" s="15"/>
     </row>
     <row r="291">
-      <c r="D291" s="4"/>
+      <c r="D291" s="15"/>
     </row>
     <row r="292">
-      <c r="D292" s="4"/>
+      <c r="D292" s="15"/>
     </row>
     <row r="293">
-      <c r="D293" s="4"/>
+      <c r="D293" s="15"/>
     </row>
     <row r="294">
-      <c r="D294" s="4"/>
+      <c r="D294" s="15"/>
     </row>
     <row r="295">
-      <c r="D295" s="12"/>
+      <c r="D295" s="20"/>
     </row>
     <row r="296">
-      <c r="D296" s="4"/>
+      <c r="D296" s="15"/>
     </row>
     <row r="297">
-      <c r="D297" s="4"/>
+      <c r="D297" s="15"/>
     </row>
     <row r="298">
-      <c r="D298" s="4"/>
+      <c r="D298" s="15"/>
     </row>
     <row r="299">
-      <c r="D299" s="4"/>
+      <c r="D299" s="15"/>
     </row>
     <row r="300">
-      <c r="D300" s="4"/>
+      <c r="D300" s="15"/>
     </row>
     <row r="301">
-      <c r="D301" s="4"/>
+      <c r="D301" s="15"/>
     </row>
     <row r="302">
-      <c r="D302" s="4"/>
+      <c r="D302" s="15"/>
     </row>
     <row r="303">
-      <c r="D303" s="4"/>
+      <c r="D303" s="15"/>
     </row>
     <row r="304">
-      <c r="D304" s="4"/>
+      <c r="D304" s="15"/>
     </row>
     <row r="305">
-      <c r="D305" s="4"/>
+      <c r="D305" s="15"/>
     </row>
     <row r="306">
-      <c r="D306" s="4"/>
+      <c r="D306" s="15"/>
     </row>
     <row r="307">
-      <c r="D307" s="4"/>
+      <c r="D307" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1912,7 +2095,11 @@
     <hyperlink r:id="rId14" ref="D15"/>
     <hyperlink r:id="rId15" ref="D16"/>
     <hyperlink r:id="rId16" ref="D17"/>
+    <hyperlink r:id="rId17" ref="D18"/>
+    <hyperlink r:id="rId18" ref="D19"/>
+    <hyperlink r:id="rId19" ref="D20"/>
+    <hyperlink r:id="rId20" ref="D21"/>
   </hyperlinks>
-  <drawing r:id="rId17"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>
--- a/back-end/Sound/products.xlsx
+++ b/back-end/Sound/products.xlsx
@@ -223,10 +223,10 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQHjtSBsTo69nB2ofOVlKVNGJ4s5CGjKHZ7s2CwYOWNibCjyHGAHqMeFEn75rgik95z8Ho&amp;usqp=CAU</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>contactNo</t>
+  </si>
+  <si>
+    <t>vendorId</t>
   </si>
 </sst>
 </file>
@@ -272,22 +272,21 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF0D0D0D"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -318,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -336,12 +335,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -351,6 +348,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,716 +570,734 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H307"/>
+  <dimension ref="A1:I307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="89.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="58.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="14.4">
+      <c r="A1" s="4"/>
+      <c r="B1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="I1" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18.600000000000001" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4">
+        <v>15000</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="H2" s="16">
+        <v>9302558280</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.4">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="17">
+        <v>5.5</v>
+      </c>
+      <c r="H3" s="18">
+        <v>9302558280</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="C4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4">
+        <v>25000</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="17">
+        <v>5.5</v>
+      </c>
+      <c r="H4" s="18">
+        <v>9856235841</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="C5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4">
+        <v>30000</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="17">
+        <v>5.5</v>
+      </c>
+      <c r="H5" s="16">
+        <v>9998887777</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.600000000000001" customHeight="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4">
+        <v>35000</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="17">
+        <v>5.5</v>
+      </c>
+      <c r="H6" s="16">
+        <v>9998887777</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4">
+        <v>40000</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="H7" s="16">
+        <v>9856235841</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
-        <v>15000</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="C8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H8" s="18">
+        <v>9856235841</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4">
         <v>8</v>
       </c>
-      <c r="F2" s="7">
+      <c r="C9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4">
+        <v>50000</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="17">
+        <v>3.3</v>
+      </c>
+      <c r="H9" s="18">
+        <v>9856235841</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="4">
+        <v>55000</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="17">
+        <v>5.5</v>
+      </c>
+      <c r="H10" s="18">
+        <v>9856235841</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="4">
+        <v>60000</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="17">
         <v>4.5</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H11" s="18">
+        <v>9856235841</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.4">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4">
+        <v>11</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="4">
+        <v>65000</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="17">
+        <v>5.5</v>
+      </c>
+      <c r="H12" s="18">
         <v>9302558280</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4">
-        <v>20000</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="I12" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4">
         <v>12</v>
       </c>
-      <c r="F3" s="7">
+      <c r="C13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="4">
+        <v>70000</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="17">
+        <v>3.3</v>
+      </c>
+      <c r="H13" s="14">
+        <v>7863524841</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.4">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4">
+        <v>13</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="4">
+        <v>75000</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="17">
         <v>5.5</v>
       </c>
-      <c r="G3" s="8">
-        <v>9302558280</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="H14" s="18">
+        <v>9130499744.1247101</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.4">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="4">
+        <v>80000</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="17">
+        <v>5.5</v>
+      </c>
+      <c r="H15" s="18">
+        <v>9071162040.2191105</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4">
         <v>15</v>
       </c>
-      <c r="D4" s="4">
-        <v>25000</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="C16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="4">
+        <v>85000</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="17">
+        <v>5.5</v>
+      </c>
+      <c r="H16" s="16">
+        <v>9011824336.3135204</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.4">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4">
         <v>16</v>
       </c>
-      <c r="F4" s="7">
+      <c r="C17" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="4">
+        <v>90000</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="17">
         <v>5.5</v>
       </c>
-      <c r="G4" s="8">
-        <v>9856235841</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="H17" s="16">
+        <v>8952486632.4079208</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4">
-        <v>30000</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="G5" s="5">
-        <v>9998887777</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="4">
-        <v>35000</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="G6" s="5">
-        <v>9998887777</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4">
-        <v>40000</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="C18" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="4">
+        <v>95000</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="17">
         <v>3.5</v>
       </c>
-      <c r="G7" s="5">
-        <v>9856235841</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="4">
-        <v>45000</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G8" s="8">
-        <v>9856235841</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="4">
-        <v>50000</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="G9" s="8">
-        <v>9856235841</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.6">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="4">
-        <v>55000</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="G10" s="8">
-        <v>9856235841</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.6">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="4">
-        <v>60000</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="G11" s="8">
-        <v>9856235841</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.6">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="4">
-        <v>65000</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="G12" s="8">
-        <v>9302558280</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.6">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="4">
-        <v>70000</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="G13" s="9">
-        <v>7863524841</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="H18" s="16">
+        <v>8893148928.5023403</v>
+      </c>
+      <c r="I18" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="4">
-        <v>75000</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="G14" s="8">
-        <v>9130499744.1247101</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.6">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="4">
-        <v>80000</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="G15" s="8">
-        <v>9071162040.2191105</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.6">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="4">
-        <v>85000</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="G16" s="5">
-        <v>9011824336.3135204</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.6">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="4">
-        <v>90000</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="G17" s="5">
-        <v>8952486632.4079208</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.6">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="4">
-        <v>95000</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="G18" s="5">
-        <v>8893148928.5023403</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="13.8">
+    <row r="19" spans="1:9" ht="13.8">
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6" customHeight="1">
+    <row r="20" spans="1:9" ht="15.6" customHeight="1">
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="13.8">
+    <row r="21" spans="1:9" ht="13.8">
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="14.4">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+    <row r="22" spans="1:9" ht="14.4">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="3"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="14.4">
+    <row r="23" spans="1:9" ht="14.4">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="3"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="14.4">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+    <row r="24" spans="1:9" ht="14.4">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="3"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="14.4">
+    <row r="25" spans="1:9" ht="14.4">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="14.4">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+    <row r="26" spans="1:9" ht="14.4">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="14.4">
+    <row r="27" spans="1:9" ht="14.4">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="14.4">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
+    <row r="28" spans="1:9" ht="14.4">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="14.4">
+    <row r="29" spans="1:9" ht="14.4">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="14.4">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+    <row r="30" spans="1:9" ht="14.4">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="14.4">
+    <row r="31" spans="1:9" ht="14.4">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="13"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="14.4">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
+    <row r="32" spans="1:9" ht="14.4">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" ht="14.4">
-      <c r="A33" s="13"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" ht="14.4">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="13"/>
+      <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" ht="14.4">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" ht="14.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="13"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="13"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" ht="14.4">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" ht="14.4">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:4" ht="14.4">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" ht="14.4">
-      <c r="A40" s="13"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
     </row>
     <row r="41" spans="1:4" ht="14.4">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="4"/>
-      <c r="D41" s="13"/>
+      <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:4" ht="14.4">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="13"/>
+      <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="14.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="13"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="13"/>
+      <c r="D43" s="11"/>
     </row>
     <row r="44" spans="1:4" ht="14.4">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" ht="14.4">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="D45" s="13"/>
+      <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:4" ht="14.4">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="14.4">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="D47" s="13"/>
+      <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:4" ht="14.4">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="D48" s="13"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="D48" s="11"/>
     </row>
     <row r="49" spans="1:4" ht="14.4">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="13"/>
+      <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4" ht="14.4">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="13"/>
+      <c r="D50" s="11"/>
     </row>
     <row r="51" spans="1:4" ht="14.4">
-      <c r="A51" s="13"/>
+      <c r="A51" s="11"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="13"/>
+      <c r="C51" s="11"/>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" ht="14.4">
       <c r="A52" s="4"/>
-      <c r="B52" s="13"/>
+      <c r="B52" s="11"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="13"/>
+      <c r="D52" s="11"/>
     </row>
     <row r="53" spans="1:4" ht="14.4">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" ht="14.4">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-      <c r="D54" s="13"/>
+      <c r="D54" s="11"/>
     </row>
     <row r="55" spans="1:4" ht="14.4">
-      <c r="B55" s="13"/>
+      <c r="B55" s="11"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" ht="14.4">
       <c r="C56" s="4"/>
-      <c r="D56" s="13"/>
+      <c r="D56" s="11"/>
     </row>
     <row r="57" spans="1:4" ht="14.4">
       <c r="C57" s="4"/>
@@ -1278,11 +1305,11 @@
     </row>
     <row r="58" spans="1:4" ht="14.4">
       <c r="C58" s="4"/>
-      <c r="D58" s="13"/>
+      <c r="D58" s="11"/>
     </row>
     <row r="59" spans="1:4" ht="14.4">
       <c r="C59" s="4"/>
-      <c r="D59" s="13"/>
+      <c r="D59" s="11"/>
     </row>
     <row r="60" spans="1:4" ht="14.4">
       <c r="C60" s="4"/>
@@ -1290,7 +1317,7 @@
     </row>
     <row r="61" spans="1:4" ht="14.4">
       <c r="C61" s="4"/>
-      <c r="D61" s="13"/>
+      <c r="D61" s="11"/>
     </row>
     <row r="62" spans="1:4" ht="14.4">
       <c r="C62" s="4"/>
@@ -1319,7 +1346,7 @@
       <c r="E77" s="6"/>
       <c r="F77" s="7"/>
       <c r="G77" s="5"/>
-      <c r="H77" s="14"/>
+      <c r="H77" s="12"/>
     </row>
     <row r="78" spans="2:8" ht="13.8"/>
     <row r="79" spans="2:8" ht="13.8"/>
@@ -1330,708 +1357,708 @@
       <c r="B83" s="2"/>
       <c r="C83" s="5"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="11"/>
+      <c r="E83" s="9"/>
       <c r="F83" s="7"/>
       <c r="G83" s="8"/>
-      <c r="H83" s="14"/>
+      <c r="H83" s="12"/>
     </row>
     <row r="84" spans="2:8" ht="15.6">
-      <c r="B84" s="15"/>
+      <c r="B84" s="13"/>
       <c r="C84" s="5"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="12"/>
+      <c r="E84" s="10"/>
       <c r="F84" s="7"/>
       <c r="G84" s="8"/>
       <c r="H84" s="5"/>
     </row>
     <row r="85" spans="2:8" ht="14.4">
-      <c r="D85" s="13"/>
+      <c r="D85" s="11"/>
     </row>
     <row r="86" spans="2:8" ht="14.4">
-      <c r="D86" s="13"/>
+      <c r="D86" s="11"/>
     </row>
     <row r="87" spans="2:8" ht="14.4">
-      <c r="D87" s="13"/>
+      <c r="D87" s="11"/>
     </row>
     <row r="88" spans="2:8" ht="14.4">
-      <c r="D88" s="13"/>
+      <c r="D88" s="11"/>
     </row>
     <row r="89" spans="2:8" ht="14.4">
-      <c r="D89" s="13"/>
+      <c r="D89" s="11"/>
     </row>
     <row r="90" spans="2:8" ht="14.4">
-      <c r="D90" s="13"/>
+      <c r="D90" s="11"/>
     </row>
     <row r="91" spans="2:8" ht="14.4">
-      <c r="D91" s="13"/>
+      <c r="D91" s="11"/>
     </row>
     <row r="92" spans="2:8" ht="14.4">
-      <c r="D92" s="13"/>
+      <c r="D92" s="11"/>
     </row>
     <row r="93" spans="2:8" ht="14.4">
-      <c r="D93" s="13"/>
+      <c r="D93" s="11"/>
     </row>
     <row r="94" spans="2:8" ht="14.4">
-      <c r="D94" s="13"/>
+      <c r="D94" s="11"/>
     </row>
     <row r="95" spans="2:8" ht="14.4">
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="2:8" ht="14.4">
-      <c r="D96" s="13"/>
+      <c r="D96" s="11"/>
     </row>
     <row r="97" spans="4:4" ht="14.4">
-      <c r="D97" s="13"/>
+      <c r="D97" s="11"/>
     </row>
     <row r="98" spans="4:4" ht="14.4">
-      <c r="D98" s="13"/>
+      <c r="D98" s="11"/>
     </row>
     <row r="99" spans="4:4" ht="14.4">
-      <c r="D99" s="13"/>
+      <c r="D99" s="11"/>
     </row>
     <row r="100" spans="4:4" ht="14.4">
-      <c r="D100" s="13"/>
+      <c r="D100" s="11"/>
     </row>
     <row r="101" spans="4:4" ht="14.4">
-      <c r="D101" s="13"/>
+      <c r="D101" s="11"/>
     </row>
     <row r="102" spans="4:4" ht="14.4">
-      <c r="D102" s="13"/>
+      <c r="D102" s="11"/>
     </row>
     <row r="103" spans="4:4" ht="14.4">
-      <c r="D103" s="13"/>
+      <c r="D103" s="11"/>
     </row>
     <row r="104" spans="4:4" ht="14.4">
-      <c r="D104" s="13"/>
+      <c r="D104" s="11"/>
     </row>
     <row r="105" spans="4:4" ht="14.4">
-      <c r="D105" s="13"/>
+      <c r="D105" s="11"/>
     </row>
     <row r="106" spans="4:4" ht="14.4">
-      <c r="D106" s="13"/>
+      <c r="D106" s="11"/>
     </row>
     <row r="107" spans="4:4" ht="14.4">
-      <c r="D107" s="13"/>
+      <c r="D107" s="11"/>
     </row>
     <row r="108" spans="4:4" ht="14.4">
-      <c r="D108" s="13"/>
+      <c r="D108" s="11"/>
     </row>
     <row r="109" spans="4:4" ht="14.4">
-      <c r="D109" s="13"/>
+      <c r="D109" s="11"/>
     </row>
     <row r="110" spans="4:4" ht="14.4">
-      <c r="D110" s="13"/>
+      <c r="D110" s="11"/>
     </row>
     <row r="111" spans="4:4" ht="14.4">
-      <c r="D111" s="13"/>
+      <c r="D111" s="11"/>
     </row>
     <row r="112" spans="4:4" ht="14.4">
-      <c r="D112" s="13"/>
+      <c r="D112" s="11"/>
     </row>
     <row r="113" spans="4:4" ht="14.4">
-      <c r="D113" s="13"/>
+      <c r="D113" s="11"/>
     </row>
     <row r="114" spans="4:4" ht="14.4">
-      <c r="D114" s="13"/>
+      <c r="D114" s="11"/>
     </row>
     <row r="115" spans="4:4" ht="14.4">
-      <c r="D115" s="13"/>
+      <c r="D115" s="11"/>
     </row>
     <row r="116" spans="4:4" ht="14.4">
-      <c r="D116" s="13"/>
+      <c r="D116" s="11"/>
     </row>
     <row r="117" spans="4:4" ht="14.4">
-      <c r="D117" s="13"/>
+      <c r="D117" s="11"/>
     </row>
     <row r="118" spans="4:4" ht="14.4">
-      <c r="D118" s="13"/>
+      <c r="D118" s="11"/>
     </row>
     <row r="119" spans="4:4" ht="14.4">
-      <c r="D119" s="13"/>
+      <c r="D119" s="11"/>
     </row>
     <row r="120" spans="4:4" ht="14.4">
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="4:4" ht="14.4">
-      <c r="D121" s="13"/>
+      <c r="D121" s="11"/>
     </row>
     <row r="122" spans="4:4" ht="14.4">
-      <c r="D122" s="13"/>
+      <c r="D122" s="11"/>
     </row>
     <row r="123" spans="4:4" ht="14.4">
-      <c r="D123" s="13"/>
+      <c r="D123" s="11"/>
     </row>
     <row r="124" spans="4:4" ht="14.4">
-      <c r="D124" s="13"/>
+      <c r="D124" s="11"/>
     </row>
     <row r="125" spans="4:4" ht="14.4">
-      <c r="D125" s="13"/>
+      <c r="D125" s="11"/>
     </row>
     <row r="126" spans="4:4" ht="14.4">
-      <c r="D126" s="13"/>
+      <c r="D126" s="11"/>
     </row>
     <row r="127" spans="4:4" ht="14.4">
-      <c r="D127" s="13"/>
+      <c r="D127" s="11"/>
     </row>
     <row r="128" spans="4:4" ht="14.4">
-      <c r="D128" s="13"/>
+      <c r="D128" s="11"/>
     </row>
     <row r="129" spans="4:4" ht="14.4">
-      <c r="D129" s="13"/>
+      <c r="D129" s="11"/>
     </row>
     <row r="130" spans="4:4" ht="14.4">
-      <c r="D130" s="13"/>
+      <c r="D130" s="11"/>
     </row>
     <row r="131" spans="4:4" ht="14.4">
-      <c r="D131" s="13"/>
+      <c r="D131" s="11"/>
     </row>
     <row r="132" spans="4:4" ht="14.4">
-      <c r="D132" s="13"/>
+      <c r="D132" s="11"/>
     </row>
     <row r="133" spans="4:4" ht="14.4">
-      <c r="D133" s="13"/>
+      <c r="D133" s="11"/>
     </row>
     <row r="134" spans="4:4" ht="14.4">
-      <c r="D134" s="13"/>
+      <c r="D134" s="11"/>
     </row>
     <row r="135" spans="4:4" ht="14.4">
-      <c r="D135" s="13"/>
+      <c r="D135" s="11"/>
     </row>
     <row r="136" spans="4:4" ht="14.4">
-      <c r="D136" s="13"/>
+      <c r="D136" s="11"/>
     </row>
     <row r="137" spans="4:4" ht="14.4">
-      <c r="D137" s="13"/>
+      <c r="D137" s="11"/>
     </row>
     <row r="138" spans="4:4" ht="14.4">
-      <c r="D138" s="13"/>
+      <c r="D138" s="11"/>
     </row>
     <row r="139" spans="4:4" ht="14.4">
-      <c r="D139" s="13"/>
+      <c r="D139" s="11"/>
     </row>
     <row r="140" spans="4:4" ht="14.4">
-      <c r="D140" s="13"/>
+      <c r="D140" s="11"/>
     </row>
     <row r="141" spans="4:4" ht="14.4">
-      <c r="D141" s="13"/>
+      <c r="D141" s="11"/>
     </row>
     <row r="142" spans="4:4" ht="14.4">
-      <c r="D142" s="13"/>
+      <c r="D142" s="11"/>
     </row>
     <row r="143" spans="4:4" ht="14.4">
-      <c r="D143" s="13"/>
+      <c r="D143" s="11"/>
     </row>
     <row r="144" spans="4:4" ht="14.4">
-      <c r="D144" s="13"/>
+      <c r="D144" s="11"/>
     </row>
     <row r="145" spans="4:4" ht="14.4">
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="4:4" ht="14.4">
-      <c r="D146" s="13"/>
+      <c r="D146" s="11"/>
     </row>
     <row r="147" spans="4:4" ht="14.4">
-      <c r="D147" s="13"/>
+      <c r="D147" s="11"/>
     </row>
     <row r="148" spans="4:4" ht="14.4">
-      <c r="D148" s="13"/>
+      <c r="D148" s="11"/>
     </row>
     <row r="149" spans="4:4" ht="14.4">
-      <c r="D149" s="13"/>
+      <c r="D149" s="11"/>
     </row>
     <row r="150" spans="4:4" ht="14.4">
-      <c r="D150" s="13"/>
+      <c r="D150" s="11"/>
     </row>
     <row r="151" spans="4:4" ht="14.4">
-      <c r="D151" s="13"/>
+      <c r="D151" s="11"/>
     </row>
     <row r="152" spans="4:4" ht="14.4">
-      <c r="D152" s="13"/>
+      <c r="D152" s="11"/>
     </row>
     <row r="153" spans="4:4" ht="14.4">
-      <c r="D153" s="13"/>
+      <c r="D153" s="11"/>
     </row>
     <row r="154" spans="4:4" ht="14.4">
-      <c r="D154" s="13"/>
+      <c r="D154" s="11"/>
     </row>
     <row r="155" spans="4:4" ht="14.4">
-      <c r="D155" s="13"/>
+      <c r="D155" s="11"/>
     </row>
     <row r="156" spans="4:4" ht="14.4">
-      <c r="D156" s="13"/>
+      <c r="D156" s="11"/>
     </row>
     <row r="157" spans="4:4" ht="14.4">
-      <c r="D157" s="13"/>
+      <c r="D157" s="11"/>
     </row>
     <row r="158" spans="4:4" ht="14.4">
-      <c r="D158" s="13"/>
+      <c r="D158" s="11"/>
     </row>
     <row r="159" spans="4:4" ht="14.4">
-      <c r="D159" s="13"/>
+      <c r="D159" s="11"/>
     </row>
     <row r="160" spans="4:4" ht="14.4">
-      <c r="D160" s="13"/>
+      <c r="D160" s="11"/>
     </row>
     <row r="161" spans="4:4" ht="14.4">
-      <c r="D161" s="13"/>
+      <c r="D161" s="11"/>
     </row>
     <row r="162" spans="4:4" ht="14.4">
-      <c r="D162" s="13"/>
+      <c r="D162" s="11"/>
     </row>
     <row r="163" spans="4:4" ht="14.4">
-      <c r="D163" s="13"/>
+      <c r="D163" s="11"/>
     </row>
     <row r="164" spans="4:4" ht="14.4">
-      <c r="D164" s="13"/>
+      <c r="D164" s="11"/>
     </row>
     <row r="165" spans="4:4" ht="14.4">
-      <c r="D165" s="13"/>
+      <c r="D165" s="11"/>
     </row>
     <row r="166" spans="4:4" ht="14.4">
-      <c r="D166" s="13"/>
+      <c r="D166" s="11"/>
     </row>
     <row r="167" spans="4:4" ht="14.4">
-      <c r="D167" s="13"/>
+      <c r="D167" s="11"/>
     </row>
     <row r="168" spans="4:4" ht="14.4">
-      <c r="D168" s="13"/>
+      <c r="D168" s="11"/>
     </row>
     <row r="169" spans="4:4" ht="14.4">
-      <c r="D169" s="13"/>
+      <c r="D169" s="11"/>
     </row>
     <row r="170" spans="4:4" ht="14.4">
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="4:4" ht="14.4">
-      <c r="D171" s="13"/>
+      <c r="D171" s="11"/>
     </row>
     <row r="172" spans="4:4" ht="14.4">
-      <c r="D172" s="13"/>
+      <c r="D172" s="11"/>
     </row>
     <row r="173" spans="4:4" ht="14.4">
-      <c r="D173" s="13"/>
+      <c r="D173" s="11"/>
     </row>
     <row r="174" spans="4:4" ht="14.4">
-      <c r="D174" s="13"/>
+      <c r="D174" s="11"/>
     </row>
     <row r="175" spans="4:4" ht="14.4">
-      <c r="D175" s="13"/>
+      <c r="D175" s="11"/>
     </row>
     <row r="176" spans="4:4" ht="14.4">
-      <c r="D176" s="13"/>
+      <c r="D176" s="11"/>
     </row>
     <row r="177" spans="4:4" ht="14.4">
-      <c r="D177" s="13"/>
+      <c r="D177" s="11"/>
     </row>
     <row r="178" spans="4:4" ht="14.4">
-      <c r="D178" s="13"/>
+      <c r="D178" s="11"/>
     </row>
     <row r="179" spans="4:4" ht="14.4">
-      <c r="D179" s="13"/>
+      <c r="D179" s="11"/>
     </row>
     <row r="180" spans="4:4" ht="14.4">
-      <c r="D180" s="13"/>
+      <c r="D180" s="11"/>
     </row>
     <row r="181" spans="4:4" ht="14.4">
-      <c r="D181" s="13"/>
+      <c r="D181" s="11"/>
     </row>
     <row r="182" spans="4:4" ht="14.4">
-      <c r="D182" s="13"/>
+      <c r="D182" s="11"/>
     </row>
     <row r="183" spans="4:4" ht="14.4">
-      <c r="D183" s="13"/>
+      <c r="D183" s="11"/>
     </row>
     <row r="184" spans="4:4" ht="14.4">
-      <c r="D184" s="13"/>
+      <c r="D184" s="11"/>
     </row>
     <row r="185" spans="4:4" ht="14.4">
-      <c r="D185" s="13"/>
+      <c r="D185" s="11"/>
     </row>
     <row r="186" spans="4:4" ht="14.4">
-      <c r="D186" s="13"/>
+      <c r="D186" s="11"/>
     </row>
     <row r="187" spans="4:4" ht="14.4">
-      <c r="D187" s="13"/>
+      <c r="D187" s="11"/>
     </row>
     <row r="188" spans="4:4" ht="14.4">
-      <c r="D188" s="13"/>
+      <c r="D188" s="11"/>
     </row>
     <row r="189" spans="4:4" ht="14.4">
-      <c r="D189" s="13"/>
+      <c r="D189" s="11"/>
     </row>
     <row r="190" spans="4:4" ht="14.4">
-      <c r="D190" s="13"/>
+      <c r="D190" s="11"/>
     </row>
     <row r="191" spans="4:4" ht="14.4">
-      <c r="D191" s="13"/>
+      <c r="D191" s="11"/>
     </row>
     <row r="192" spans="4:4" ht="14.4">
-      <c r="D192" s="13"/>
+      <c r="D192" s="11"/>
     </row>
     <row r="193" spans="4:4" ht="14.4">
-      <c r="D193" s="13"/>
+      <c r="D193" s="11"/>
     </row>
     <row r="194" spans="4:4" ht="14.4">
-      <c r="D194" s="13"/>
+      <c r="D194" s="11"/>
     </row>
     <row r="195" spans="4:4" ht="14.4">
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="4:4" ht="14.4">
-      <c r="D196" s="13"/>
+      <c r="D196" s="11"/>
     </row>
     <row r="197" spans="4:4" ht="14.4">
-      <c r="D197" s="13"/>
+      <c r="D197" s="11"/>
     </row>
     <row r="198" spans="4:4" ht="14.4">
-      <c r="D198" s="13"/>
+      <c r="D198" s="11"/>
     </row>
     <row r="199" spans="4:4" ht="14.4">
-      <c r="D199" s="13"/>
+      <c r="D199" s="11"/>
     </row>
     <row r="200" spans="4:4" ht="14.4">
-      <c r="D200" s="13"/>
+      <c r="D200" s="11"/>
     </row>
     <row r="201" spans="4:4" ht="14.4">
-      <c r="D201" s="13"/>
+      <c r="D201" s="11"/>
     </row>
     <row r="202" spans="4:4" ht="14.4">
-      <c r="D202" s="13"/>
+      <c r="D202" s="11"/>
     </row>
     <row r="203" spans="4:4" ht="14.4">
-      <c r="D203" s="13"/>
+      <c r="D203" s="11"/>
     </row>
     <row r="204" spans="4:4" ht="14.4">
-      <c r="D204" s="13"/>
+      <c r="D204" s="11"/>
     </row>
     <row r="205" spans="4:4" ht="14.4">
-      <c r="D205" s="13"/>
+      <c r="D205" s="11"/>
     </row>
     <row r="206" spans="4:4" ht="14.4">
-      <c r="D206" s="13"/>
+      <c r="D206" s="11"/>
     </row>
     <row r="207" spans="4:4" ht="14.4">
-      <c r="D207" s="13"/>
+      <c r="D207" s="11"/>
     </row>
     <row r="208" spans="4:4" ht="14.4">
-      <c r="D208" s="13"/>
+      <c r="D208" s="11"/>
     </row>
     <row r="209" spans="4:4" ht="14.4">
-      <c r="D209" s="13"/>
+      <c r="D209" s="11"/>
     </row>
     <row r="210" spans="4:4" ht="14.4">
-      <c r="D210" s="13"/>
+      <c r="D210" s="11"/>
     </row>
     <row r="211" spans="4:4" ht="14.4">
-      <c r="D211" s="13"/>
+      <c r="D211" s="11"/>
     </row>
     <row r="212" spans="4:4" ht="14.4">
-      <c r="D212" s="13"/>
+      <c r="D212" s="11"/>
     </row>
     <row r="213" spans="4:4" ht="14.4">
-      <c r="D213" s="13"/>
+      <c r="D213" s="11"/>
     </row>
     <row r="214" spans="4:4" ht="14.4">
-      <c r="D214" s="13"/>
+      <c r="D214" s="11"/>
     </row>
     <row r="215" spans="4:4" ht="14.4">
-      <c r="D215" s="13"/>
+      <c r="D215" s="11"/>
     </row>
     <row r="216" spans="4:4" ht="14.4">
-      <c r="D216" s="13"/>
+      <c r="D216" s="11"/>
     </row>
     <row r="217" spans="4:4" ht="14.4">
-      <c r="D217" s="13"/>
+      <c r="D217" s="11"/>
     </row>
     <row r="218" spans="4:4" ht="14.4">
-      <c r="D218" s="13"/>
+      <c r="D218" s="11"/>
     </row>
     <row r="219" spans="4:4" ht="14.4">
-      <c r="D219" s="13"/>
+      <c r="D219" s="11"/>
     </row>
     <row r="220" spans="4:4" ht="14.4">
       <c r="D220" s="4"/>
     </row>
     <row r="221" spans="4:4" ht="14.4">
-      <c r="D221" s="13"/>
+      <c r="D221" s="11"/>
     </row>
     <row r="222" spans="4:4" ht="14.4">
-      <c r="D222" s="13"/>
+      <c r="D222" s="11"/>
     </row>
     <row r="223" spans="4:4" ht="14.4">
-      <c r="D223" s="13"/>
+      <c r="D223" s="11"/>
     </row>
     <row r="224" spans="4:4" ht="14.4">
-      <c r="D224" s="13"/>
+      <c r="D224" s="11"/>
     </row>
     <row r="225" spans="4:4" ht="14.4">
-      <c r="D225" s="13"/>
+      <c r="D225" s="11"/>
     </row>
     <row r="226" spans="4:4" ht="14.4">
-      <c r="D226" s="13"/>
+      <c r="D226" s="11"/>
     </row>
     <row r="227" spans="4:4" ht="14.4">
-      <c r="D227" s="13"/>
+      <c r="D227" s="11"/>
     </row>
     <row r="228" spans="4:4" ht="14.4">
-      <c r="D228" s="13"/>
+      <c r="D228" s="11"/>
     </row>
     <row r="229" spans="4:4" ht="14.4">
-      <c r="D229" s="13"/>
+      <c r="D229" s="11"/>
     </row>
     <row r="230" spans="4:4" ht="14.4">
-      <c r="D230" s="13"/>
+      <c r="D230" s="11"/>
     </row>
     <row r="231" spans="4:4" ht="14.4">
-      <c r="D231" s="13"/>
+      <c r="D231" s="11"/>
     </row>
     <row r="232" spans="4:4" ht="14.4">
-      <c r="D232" s="13"/>
+      <c r="D232" s="11"/>
     </row>
     <row r="233" spans="4:4" ht="14.4">
-      <c r="D233" s="13"/>
+      <c r="D233" s="11"/>
     </row>
     <row r="234" spans="4:4" ht="14.4">
-      <c r="D234" s="13"/>
+      <c r="D234" s="11"/>
     </row>
     <row r="235" spans="4:4" ht="14.4">
-      <c r="D235" s="13"/>
+      <c r="D235" s="11"/>
     </row>
     <row r="236" spans="4:4" ht="14.4">
-      <c r="D236" s="13"/>
+      <c r="D236" s="11"/>
     </row>
     <row r="237" spans="4:4" ht="14.4">
-      <c r="D237" s="13"/>
+      <c r="D237" s="11"/>
     </row>
     <row r="238" spans="4:4" ht="14.4">
-      <c r="D238" s="13"/>
+      <c r="D238" s="11"/>
     </row>
     <row r="239" spans="4:4" ht="14.4">
-      <c r="D239" s="13"/>
+      <c r="D239" s="11"/>
     </row>
     <row r="240" spans="4:4" ht="14.4">
-      <c r="D240" s="13"/>
+      <c r="D240" s="11"/>
     </row>
     <row r="241" spans="4:4" ht="14.4">
-      <c r="D241" s="13"/>
+      <c r="D241" s="11"/>
     </row>
     <row r="242" spans="4:4" ht="14.4">
-      <c r="D242" s="13"/>
+      <c r="D242" s="11"/>
     </row>
     <row r="243" spans="4:4" ht="14.4">
-      <c r="D243" s="13"/>
+      <c r="D243" s="11"/>
     </row>
     <row r="244" spans="4:4" ht="14.4">
-      <c r="D244" s="13"/>
+      <c r="D244" s="11"/>
     </row>
     <row r="245" spans="4:4" ht="14.4">
       <c r="D245" s="4"/>
     </row>
     <row r="246" spans="4:4" ht="14.4">
-      <c r="D246" s="13"/>
+      <c r="D246" s="11"/>
     </row>
     <row r="247" spans="4:4" ht="14.4">
-      <c r="D247" s="13"/>
+      <c r="D247" s="11"/>
     </row>
     <row r="248" spans="4:4" ht="14.4">
-      <c r="D248" s="13"/>
+      <c r="D248" s="11"/>
     </row>
     <row r="249" spans="4:4" ht="14.4">
-      <c r="D249" s="13"/>
+      <c r="D249" s="11"/>
     </row>
     <row r="250" spans="4:4" ht="14.4">
-      <c r="D250" s="13"/>
+      <c r="D250" s="11"/>
     </row>
     <row r="251" spans="4:4" ht="14.4">
-      <c r="D251" s="13"/>
+      <c r="D251" s="11"/>
     </row>
     <row r="252" spans="4:4" ht="14.4">
-      <c r="D252" s="13"/>
+      <c r="D252" s="11"/>
     </row>
     <row r="253" spans="4:4" ht="14.4">
-      <c r="D253" s="13"/>
+      <c r="D253" s="11"/>
     </row>
     <row r="254" spans="4:4" ht="14.4">
-      <c r="D254" s="13"/>
+      <c r="D254" s="11"/>
     </row>
     <row r="255" spans="4:4" ht="14.4">
-      <c r="D255" s="13"/>
+      <c r="D255" s="11"/>
     </row>
     <row r="256" spans="4:4" ht="14.4">
-      <c r="D256" s="13"/>
+      <c r="D256" s="11"/>
     </row>
     <row r="257" spans="4:4" ht="14.4">
-      <c r="D257" s="13"/>
+      <c r="D257" s="11"/>
     </row>
     <row r="258" spans="4:4" ht="14.4">
-      <c r="D258" s="13"/>
+      <c r="D258" s="11"/>
     </row>
     <row r="259" spans="4:4" ht="14.4">
-      <c r="D259" s="13"/>
+      <c r="D259" s="11"/>
     </row>
     <row r="260" spans="4:4" ht="14.4">
-      <c r="D260" s="13"/>
+      <c r="D260" s="11"/>
     </row>
     <row r="261" spans="4:4" ht="14.4">
-      <c r="D261" s="13"/>
+      <c r="D261" s="11"/>
     </row>
     <row r="262" spans="4:4" ht="14.4">
-      <c r="D262" s="13"/>
+      <c r="D262" s="11"/>
     </row>
     <row r="263" spans="4:4" ht="14.4">
-      <c r="D263" s="13"/>
+      <c r="D263" s="11"/>
     </row>
     <row r="264" spans="4:4" ht="14.4">
-      <c r="D264" s="13"/>
+      <c r="D264" s="11"/>
     </row>
     <row r="265" spans="4:4" ht="14.4">
-      <c r="D265" s="13"/>
+      <c r="D265" s="11"/>
     </row>
     <row r="266" spans="4:4" ht="14.4">
-      <c r="D266" s="13"/>
+      <c r="D266" s="11"/>
     </row>
     <row r="267" spans="4:4" ht="14.4">
-      <c r="D267" s="13"/>
+      <c r="D267" s="11"/>
     </row>
     <row r="268" spans="4:4" ht="14.4">
-      <c r="D268" s="13"/>
+      <c r="D268" s="11"/>
     </row>
     <row r="269" spans="4:4" ht="14.4">
-      <c r="D269" s="13"/>
+      <c r="D269" s="11"/>
     </row>
     <row r="270" spans="4:4" ht="14.4">
       <c r="D270" s="4"/>
     </row>
     <row r="271" spans="4:4" ht="14.4">
-      <c r="D271" s="13"/>
+      <c r="D271" s="11"/>
     </row>
     <row r="272" spans="4:4" ht="14.4">
-      <c r="D272" s="13"/>
+      <c r="D272" s="11"/>
     </row>
     <row r="273" spans="4:4" ht="14.4">
-      <c r="D273" s="13"/>
+      <c r="D273" s="11"/>
     </row>
     <row r="274" spans="4:4" ht="14.4">
-      <c r="D274" s="13"/>
+      <c r="D274" s="11"/>
     </row>
     <row r="275" spans="4:4" ht="14.4">
-      <c r="D275" s="13"/>
+      <c r="D275" s="11"/>
     </row>
     <row r="276" spans="4:4" ht="14.4">
-      <c r="D276" s="13"/>
+      <c r="D276" s="11"/>
     </row>
     <row r="277" spans="4:4" ht="14.4">
-      <c r="D277" s="13"/>
+      <c r="D277" s="11"/>
     </row>
     <row r="278" spans="4:4" ht="14.4">
-      <c r="D278" s="13"/>
+      <c r="D278" s="11"/>
     </row>
     <row r="279" spans="4:4" ht="14.4">
-      <c r="D279" s="13"/>
+      <c r="D279" s="11"/>
     </row>
     <row r="280" spans="4:4" ht="14.4">
-      <c r="D280" s="13"/>
+      <c r="D280" s="11"/>
     </row>
     <row r="281" spans="4:4" ht="14.4">
-      <c r="D281" s="13"/>
+      <c r="D281" s="11"/>
     </row>
     <row r="282" spans="4:4" ht="14.4">
-      <c r="D282" s="13"/>
+      <c r="D282" s="11"/>
     </row>
     <row r="283" spans="4:4" ht="14.4">
-      <c r="D283" s="13"/>
+      <c r="D283" s="11"/>
     </row>
     <row r="284" spans="4:4" ht="14.4">
-      <c r="D284" s="13"/>
+      <c r="D284" s="11"/>
     </row>
     <row r="285" spans="4:4" ht="14.4">
-      <c r="D285" s="13"/>
+      <c r="D285" s="11"/>
     </row>
     <row r="286" spans="4:4" ht="14.4">
-      <c r="D286" s="13"/>
+      <c r="D286" s="11"/>
     </row>
     <row r="287" spans="4:4" ht="14.4">
-      <c r="D287" s="13"/>
+      <c r="D287" s="11"/>
     </row>
     <row r="288" spans="4:4" ht="14.4">
-      <c r="D288" s="13"/>
+      <c r="D288" s="11"/>
     </row>
     <row r="289" spans="4:4" ht="14.4">
-      <c r="D289" s="13"/>
+      <c r="D289" s="11"/>
     </row>
     <row r="290" spans="4:4" ht="14.4">
-      <c r="D290" s="13"/>
+      <c r="D290" s="11"/>
     </row>
     <row r="291" spans="4:4" ht="14.4">
-      <c r="D291" s="13"/>
+      <c r="D291" s="11"/>
     </row>
     <row r="292" spans="4:4" ht="14.4">
-      <c r="D292" s="13"/>
+      <c r="D292" s="11"/>
     </row>
     <row r="293" spans="4:4" ht="14.4">
-      <c r="D293" s="13"/>
+      <c r="D293" s="11"/>
     </row>
     <row r="294" spans="4:4" ht="14.4">
-      <c r="D294" s="13"/>
+      <c r="D294" s="11"/>
     </row>
     <row r="295" spans="4:4" ht="14.4">
       <c r="D295" s="4"/>
     </row>
     <row r="296" spans="4:4" ht="14.4">
-      <c r="D296" s="13"/>
+      <c r="D296" s="11"/>
     </row>
     <row r="297" spans="4:4" ht="14.4">
-      <c r="D297" s="13"/>
+      <c r="D297" s="11"/>
     </row>
     <row r="298" spans="4:4" ht="14.4">
-      <c r="D298" s="13"/>
+      <c r="D298" s="11"/>
     </row>
     <row r="299" spans="4:4" ht="14.4">
-      <c r="D299" s="13"/>
+      <c r="D299" s="11"/>
     </row>
     <row r="300" spans="4:4" ht="14.4">
-      <c r="D300" s="13"/>
+      <c r="D300" s="11"/>
     </row>
     <row r="301" spans="4:4" ht="14.4">
-      <c r="D301" s="13"/>
+      <c r="D301" s="11"/>
     </row>
     <row r="302" spans="4:4" ht="14.4">
-      <c r="D302" s="13"/>
+      <c r="D302" s="11"/>
     </row>
     <row r="303" spans="4:4" ht="14.4">
-      <c r="D303" s="13"/>
+      <c r="D303" s="11"/>
     </row>
     <row r="304" spans="4:4" ht="14.4">
-      <c r="D304" s="13"/>
+      <c r="D304" s="11"/>
     </row>
     <row r="305" spans="4:4" ht="14.4">
-      <c r="D305" s="13"/>
+      <c r="D305" s="11"/>
     </row>
     <row r="306" spans="4:4" ht="14.4">
-      <c r="D306" s="13"/>
+      <c r="D306" s="11"/>
     </row>
     <row r="307" spans="4:4" ht="14.4">
-      <c r="D307" s="13"/>
+      <c r="D307" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
-    <hyperlink ref="E13" r:id="rId12"/>
-    <hyperlink ref="E14" r:id="rId13"/>
-    <hyperlink ref="E15" r:id="rId14"/>
-    <hyperlink ref="E16" r:id="rId15"/>
-    <hyperlink ref="E17" r:id="rId16"/>
-    <hyperlink ref="E18" r:id="rId17"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="F17" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId18"/>

--- a/back-end/Sound/products.xlsx
+++ b/back-end/Sound/products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>imageUrl</t>
-  </si>
-  <si>
-    <t>rating</t>
   </si>
   <si>
     <t>description</t>
@@ -573,7 +570,7 @@
   <dimension ref="A1:I307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -592,7 +589,7 @@
     <row r="1" spans="1:9" ht="14.4">
       <c r="A1" s="4"/>
       <c r="B1" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -606,14 +603,12 @@
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.600000000000001" customHeight="1">
@@ -622,25 +617,23 @@
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="4">
         <v>15000</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="17">
-        <v>4.5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G2" s="17"/>
       <c r="H2" s="16">
         <v>9302558280</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.4">
@@ -649,25 +642,23 @@
         <v>2</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="4">
         <v>20000</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="17">
-        <v>5.5</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G3" s="17"/>
       <c r="H3" s="18">
         <v>9302558280</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.4">
@@ -676,25 +667,23 @@
         <v>3</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="E4" s="4">
         <v>25000</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="17">
-        <v>5.5</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" s="17"/>
       <c r="H4" s="18">
         <v>9856235841</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.4">
@@ -703,25 +692,23 @@
         <v>4</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="4">
         <v>30000</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="17">
-        <v>5.5</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G5" s="17"/>
       <c r="H5" s="16">
         <v>9998887777</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.4">
@@ -730,25 +717,23 @@
         <v>5</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E6" s="4">
         <v>35000</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="17">
-        <v>5.5</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G6" s="17"/>
       <c r="H6" s="16">
         <v>9998887777</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.4">
@@ -757,25 +742,23 @@
         <v>6</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="E7" s="4">
         <v>40000</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="17">
-        <v>3.5</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G7" s="17"/>
       <c r="H7" s="16">
         <v>9856235841</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.4">
@@ -784,25 +767,23 @@
         <v>7</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="E8" s="4">
         <v>45000</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="17">
-        <v>2.2000000000000002</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G8" s="17"/>
       <c r="H8" s="18">
         <v>9856235841</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.4">
@@ -811,25 +792,23 @@
         <v>8</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>35</v>
       </c>
       <c r="E9" s="4">
         <v>50000</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="17">
-        <v>3.3</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G9" s="17"/>
       <c r="H9" s="18">
         <v>9856235841</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.4">
@@ -838,25 +817,23 @@
         <v>9</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="E10" s="4">
         <v>55000</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="17">
-        <v>5.5</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G10" s="17"/>
       <c r="H10" s="18">
         <v>9856235841</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.4">
@@ -865,25 +842,23 @@
         <v>10</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="E11" s="4">
         <v>60000</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="17">
-        <v>4.5</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G11" s="17"/>
       <c r="H11" s="18">
         <v>9856235841</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.4">
@@ -892,25 +867,23 @@
         <v>11</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="E12" s="4">
         <v>65000</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="17">
-        <v>5.5</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G12" s="17"/>
       <c r="H12" s="18">
         <v>9302558280</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.4">
@@ -919,25 +892,23 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="E13" s="4">
         <v>70000</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="17">
-        <v>3.3</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G13" s="17"/>
       <c r="H13" s="14">
         <v>7863524841</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.4">
@@ -946,25 +917,23 @@
         <v>13</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="E14" s="4">
         <v>75000</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="17">
-        <v>5.5</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G14" s="17"/>
       <c r="H14" s="18">
         <v>9130499744.1247101</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.4">
@@ -973,25 +942,23 @@
         <v>14</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="E15" s="4">
         <v>80000</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="17">
-        <v>5.5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G15" s="17"/>
       <c r="H15" s="18">
         <v>9071162040.2191105</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.4">
@@ -1000,25 +967,23 @@
         <v>15</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="E16" s="4">
         <v>85000</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="17">
-        <v>5.5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G16" s="17"/>
       <c r="H16" s="16">
         <v>9011824336.3135204</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.4">
@@ -1027,25 +992,23 @@
         <v>16</v>
       </c>
       <c r="C17" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>64</v>
       </c>
       <c r="E17" s="4">
         <v>90000</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="17">
-        <v>5.5</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G17" s="17"/>
       <c r="H17" s="16">
         <v>8952486632.4079208</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.4">
@@ -1054,25 +1017,23 @@
         <v>17</v>
       </c>
       <c r="C18" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="E18" s="4">
         <v>95000</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="17">
-        <v>3.5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G18" s="17"/>
       <c r="H18" s="16">
         <v>8893148928.5023403</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="13.8">
